--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N2">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q2">
-        <v>18.113391804648</v>
+        <v>4.960145868854779</v>
       </c>
       <c r="R2">
-        <v>163.020526241832</v>
+        <v>44.64131281969301</v>
       </c>
       <c r="S2">
-        <v>0.02270178646085102</v>
+        <v>0.004584828242620093</v>
       </c>
       <c r="T2">
-        <v>0.02270178646085102</v>
+        <v>0.004584828242620093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.549455</v>
       </c>
       <c r="O3">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P3">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q3">
-        <v>53.74765080373999</v>
+        <v>14.56083543197945</v>
       </c>
       <c r="R3">
-        <v>483.7288572336599</v>
+        <v>131.047518887815</v>
       </c>
       <c r="S3">
-        <v>0.067362739374179</v>
+        <v>0.01345906577946997</v>
       </c>
       <c r="T3">
-        <v>0.067362739374179</v>
+        <v>0.01345906577946997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N4">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O4">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P4">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q4">
-        <v>30.80334354161999</v>
+        <v>8.67301531493511</v>
       </c>
       <c r="R4">
-        <v>277.23009187458</v>
+        <v>78.057137834416</v>
       </c>
       <c r="S4">
-        <v>0.03860629389039381</v>
+        <v>0.008016757292214887</v>
       </c>
       <c r="T4">
-        <v>0.03860629389039381</v>
+        <v>0.008016757292214887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N5">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O5">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P5">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q5">
-        <v>78.84911263388599</v>
+        <v>79.70116522440435</v>
       </c>
       <c r="R5">
-        <v>709.642013704974</v>
+        <v>717.310487019639</v>
       </c>
       <c r="S5">
-        <v>0.09882277913199791</v>
+        <v>0.07367044497321375</v>
       </c>
       <c r="T5">
-        <v>0.09882277913199791</v>
+        <v>0.07367044497321375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.549455</v>
       </c>
       <c r="O6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q6">
         <v>233.9680286131383</v>
@@ -818,10 +818,10 @@
         <v>2105.712257518245</v>
       </c>
       <c r="S6">
-        <v>0.2932356502595382</v>
+        <v>0.2162644514531855</v>
       </c>
       <c r="T6">
-        <v>0.2932356502595382</v>
+        <v>0.2162644514531855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N7">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O7">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P7">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q7">
-        <v>134.089536107215</v>
+        <v>139.3607052868853</v>
       </c>
       <c r="R7">
-        <v>1206.805824964935</v>
+        <v>1254.246347581968</v>
       </c>
       <c r="S7">
-        <v>0.1680564329514167</v>
+        <v>0.1288157474405666</v>
       </c>
       <c r="T7">
-        <v>0.1680564329514167</v>
+        <v>0.1288157474405666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N8">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O8">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P8">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q8">
-        <v>43.810608247784</v>
+        <v>105.6695370898062</v>
       </c>
       <c r="R8">
-        <v>394.295474230056</v>
+        <v>951.0258338082562</v>
       </c>
       <c r="S8">
-        <v>0.05490849443813037</v>
+        <v>0.09767387710833457</v>
       </c>
       <c r="T8">
-        <v>0.05490849443813036</v>
+        <v>0.09767387710833457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.549455</v>
       </c>
       <c r="O9">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P9">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q9">
-        <v>129.9986937287533</v>
+        <v>310.1998974262756</v>
       </c>
       <c r="R9">
-        <v>1169.98824355878</v>
+        <v>2791.79907683648</v>
       </c>
       <c r="S9">
-        <v>0.1629293186526466</v>
+        <v>0.286728110055806</v>
       </c>
       <c r="T9">
-        <v>0.1629293186526465</v>
+        <v>0.286728110055806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N10">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q10">
-        <v>74.50361760945999</v>
+        <v>184.7674519526969</v>
       </c>
       <c r="R10">
-        <v>670.53255848514</v>
+        <v>1662.907067574272</v>
       </c>
       <c r="S10">
-        <v>0.09337650484084636</v>
+        <v>0.1707867176545887</v>
       </c>
       <c r="T10">
-        <v>0.09337650484084635</v>
+        <v>0.1707867176545887</v>
       </c>
     </row>
   </sheetData>
